--- a/ArticleManage/main_working_folder/output_folders/Data 119 Preparation and characterization of/Data119_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 119 Preparation and characterization of/Data119_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Xp0.25" sheetId="1" r:id="rId1"/>
-    <sheet name="Xp0.50" sheetId="2" r:id="rId4"/>
-    <sheet name="Xp0.80" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 6 Xp0.25  0-1-60-280 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 6 Xp0.50  0-1-60-280 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 6 Xp0.80  0-1-60-280 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Xp0.25</a:t>
+              <a:t>Izoterma adsorpcji probki Xp0.25 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Xp0.25'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 Xp0.25  0-1-60-280 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Xp0.25'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 Xp0.25  0-1-60-280 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="280"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Xp0.50</a:t>
+              <a:t>Izoterma adsorpcji probki Xp0.50 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Xp0.50'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 Xp0.50  0-1-60-280 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Xp0.50'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 Xp0.50  0-1-60-280 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="280"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Xp0.80</a:t>
+              <a:t>Izoterma adsorpcji probki Xp0.80 z wykresu 'Figure 6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Xp0.80'!$A$3:$A$50</c:f>
+              <c:f>'Figure 6 Xp0.80  0-1-60-280 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Xp0.80'!$B$3:$B$50</c:f>
+              <c:f>'Figure 6 Xp0.80  0-1-60-280 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="280"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 119 Preparation and characterization of/Data119_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 119 Preparation and characterization of/Data119_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,285 +3120,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0113</v>
+        <v>0.9484</v>
       </c>
       <c r="B3" s="0">
-        <v>82.1523</v>
+        <v>106.7575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0058</v>
+        <v>0.8962</v>
       </c>
       <c r="B4" s="0">
-        <v>76.4349</v>
+        <v>102.1117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0371</v>
+        <v>0.8492</v>
       </c>
       <c r="B5" s="0">
-        <v>86.7243</v>
+        <v>99.564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0629</v>
+        <v>0.8011</v>
       </c>
       <c r="B6" s="0">
-        <v>88.5132</v>
+        <v>98.0654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0888</v>
+        <v>0.753</v>
       </c>
       <c r="B7" s="0">
-        <v>89.6008</v>
+        <v>97.0163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1146</v>
+        <v>0.7033</v>
       </c>
       <c r="B8" s="0">
-        <v>90.3306</v>
+        <v>96.1172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1404</v>
+        <v>0.6542</v>
       </c>
       <c r="B9" s="0">
-        <v>91.0032</v>
+        <v>95.6676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1663</v>
+        <v>0.6045</v>
       </c>
       <c r="B10" s="0">
-        <v>91.4612</v>
+        <v>95.218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1921</v>
+        <v>0.5554</v>
       </c>
       <c r="B11" s="0">
-        <v>91.8476</v>
+        <v>94.7684</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2179</v>
+        <v>0.5052</v>
       </c>
       <c r="B12" s="0">
-        <v>92.234</v>
+        <v>94.4687</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2438</v>
+        <v>0.456</v>
       </c>
       <c r="B13" s="0">
-        <v>92.5202</v>
+        <v>94.0191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2696</v>
+        <v>0.4058</v>
       </c>
       <c r="B14" s="0">
-        <v>92.8064</v>
+        <v>94.1689</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3213</v>
+        <v>0.3598</v>
       </c>
       <c r="B15" s="0">
-        <v>93.3836</v>
+        <v>93.5695</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.373</v>
+        <v>0.3096</v>
       </c>
       <c r="B16" s="0">
-        <v>93.7619</v>
+        <v>93.2698</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4246</v>
+        <v>0.2837</v>
       </c>
       <c r="B17" s="0">
-        <v>94.1817</v>
+        <v>93.4196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4763</v>
+        <v>0.2589</v>
       </c>
       <c r="B18" s="0">
-        <v>94.2661</v>
+        <v>92.8202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5022</v>
+        <v>0.2341</v>
       </c>
       <c r="B19" s="0">
-        <v>94.5428</v>
+        <v>92.6703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.528</v>
+        <v>0.2082</v>
       </c>
       <c r="B20" s="0">
-        <v>94.6525</v>
+        <v>92.3706</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5538</v>
+        <v>0.1833</v>
       </c>
       <c r="B21" s="0">
-        <v>94.8436</v>
+        <v>91.921</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5797</v>
+        <v>0.158</v>
       </c>
       <c r="B22" s="0">
-        <v>95.2631</v>
+        <v>91.6213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6055</v>
+        <v>0.1326</v>
       </c>
       <c r="B23" s="0">
-        <v>95.05</v>
+        <v>91.0218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6313</v>
+        <v>0.1072</v>
       </c>
       <c r="B24" s="0">
-        <v>95.5255</v>
+        <v>90.4223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6572</v>
+        <v>0.0814</v>
       </c>
       <c r="B25" s="0">
-        <v>95.3445</v>
+        <v>89.5232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.683</v>
+        <v>0.0544</v>
       </c>
       <c r="B26" s="0">
-        <v>95.8582</v>
+        <v>88.4741</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7089</v>
+        <v>0.0433</v>
       </c>
       <c r="B27" s="0">
-        <v>95.8975</v>
+        <v>87.5749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7347</v>
+        <v>0.0301</v>
       </c>
       <c r="B28" s="0">
-        <v>96.6655</v>
+        <v>86.376</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7605</v>
+        <v>0.0159</v>
       </c>
       <c r="B29" s="0">
-        <v>96.7677</v>
+        <v>84.1281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7864</v>
+        <v>0.0059</v>
       </c>
       <c r="B30" s="0">
-        <v>97.6454</v>
+        <v>80.2316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8117</v>
+        <v>0.0028</v>
       </c>
       <c r="B31" s="0">
-        <v>98.6619</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.838</v>
-      </c>
-      <c r="B32" s="0">
-        <v>99.0255</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8638</v>
-      </c>
-      <c r="B33" s="0">
-        <v>100.5764</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8897</v>
-      </c>
-      <c r="B34" s="0">
-        <v>101.3457</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9155</v>
-      </c>
-      <c r="B35" s="0">
-        <v>103.2661</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9413</v>
-      </c>
-      <c r="B36" s="0">
-        <v>106.1297</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9574</v>
-      </c>
-      <c r="B37" s="0">
-        <v>106.6592</v>
-      </c>
-    </row>
-    <row r="38"/>
+        <v>77.0845</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3407,7 +3359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3428,205 +3380,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.014</v>
+        <v>0.4554</v>
       </c>
       <c r="B3" s="0">
-        <v>103.3185</v>
+        <v>122.1143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.5042</v>
       </c>
       <c r="B4" s="0">
-        <v>108.8201</v>
+        <v>122.8247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0657</v>
+        <v>0.5542</v>
       </c>
       <c r="B5" s="0">
-        <v>111.1154</v>
+        <v>123.8474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0914</v>
+        <v>0.6035</v>
       </c>
       <c r="B6" s="0">
-        <v>112.6125</v>
+        <v>125.1078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1173</v>
+        <v>0.6527</v>
       </c>
       <c r="B7" s="0">
-        <v>113.8391</v>
+        <v>126.534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1433</v>
+        <v>0.7011</v>
       </c>
       <c r="B8" s="0">
-        <v>114.7954</v>
+        <v>128.2895</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1691</v>
+        <v>0.7479</v>
       </c>
       <c r="B9" s="0">
-        <v>115.5739</v>
+        <v>130.8942</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1949</v>
+        <v>0.7966</v>
       </c>
       <c r="B10" s="0">
-        <v>116.3982</v>
+        <v>133.9122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2208</v>
+        <v>0.8512</v>
       </c>
       <c r="B11" s="0">
-        <v>117.0775</v>
+        <v>138.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2467</v>
+        <v>0.8988</v>
       </c>
       <c r="B12" s="0">
-        <v>117.7262</v>
+        <v>143.7527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2725</v>
+        <v>0.4054</v>
       </c>
       <c r="B13" s="0">
-        <v>118.3429</v>
+        <v>121.1444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3238</v>
+        <v>0.3579</v>
       </c>
       <c r="B14" s="0">
-        <v>119.7356</v>
+        <v>120.3951</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3769</v>
+        <v>0.3098</v>
       </c>
       <c r="B15" s="0">
-        <v>120.97</v>
+        <v>119.346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4533</v>
+        <v>0.2834</v>
       </c>
       <c r="B16" s="0">
-        <v>121.365</v>
+        <v>118.7466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5042</v>
+        <v>0.2591</v>
       </c>
       <c r="B17" s="0">
-        <v>122.8247</v>
+        <v>118.297</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5542</v>
+        <v>0.2332</v>
       </c>
       <c r="B18" s="0">
-        <v>123.8474</v>
+        <v>117.6975</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6035</v>
+        <v>0.2083</v>
       </c>
       <c r="B19" s="0">
-        <v>125.1078</v>
+        <v>117.0981</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6527</v>
+        <v>0.1835</v>
       </c>
       <c r="B20" s="0">
-        <v>126.534</v>
+        <v>116.3488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.7011</v>
+        <v>0.1581</v>
       </c>
       <c r="B21" s="0">
-        <v>128.2895</v>
+        <v>115.5995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7479</v>
+        <v>0.1328</v>
       </c>
       <c r="B22" s="0">
-        <v>130.5944</v>
+        <v>114.8501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7972</v>
+        <v>0.1074</v>
       </c>
       <c r="B23" s="0">
-        <v>133.6125</v>
+        <v>113.5014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8496</v>
+        <v>0.081</v>
       </c>
       <c r="B24" s="0">
-        <v>137.8605</v>
+        <v>112.4523</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8988</v>
+        <v>0.0546</v>
       </c>
       <c r="B25" s="0">
-        <v>143.7527</v>
+        <v>110.654</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4165</v>
+        <v>0.0419</v>
       </c>
       <c r="B26" s="0">
-        <v>120.8447</v>
+        <v>109.6049</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0267</v>
+        <v>0.0309</v>
       </c>
       <c r="B27" s="0">
-        <v>107.0572</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>107.9564</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0193</v>
+      </c>
+      <c r="B28" s="0">
+        <v>106.158</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0067</v>
+      </c>
+      <c r="B29" s="0">
+        <v>100.4632</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0036</v>
+      </c>
+      <c r="B30" s="0">
+        <v>96.8665</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0026</v>
+      </c>
+      <c r="B31" s="0">
+        <v>89.3733</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3635,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3656,333 +3640,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0167</v>
+        <v>0.9011</v>
       </c>
       <c r="B3" s="0">
-        <v>138.6533</v>
+        <v>271.7575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0332</v>
+        <v>0.8521</v>
       </c>
       <c r="B4" s="0">
-        <v>146.8501</v>
+        <v>266.5123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0482</v>
+        <v>0.7993</v>
       </c>
       <c r="B5" s="0">
-        <v>152.8925</v>
+        <v>260.6676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0716</v>
+        <v>0.7492</v>
       </c>
       <c r="B6" s="0">
-        <v>160.6072</v>
+        <v>254.5232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0973</v>
+        <v>0.6985</v>
       </c>
       <c r="B7" s="0">
-        <v>166.607</v>
+        <v>247.7793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1231</v>
+        <v>0.6489</v>
       </c>
       <c r="B8" s="0">
-        <v>171.5614</v>
+        <v>240.8856</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1489</v>
+        <v>0.5988</v>
       </c>
       <c r="B9" s="0">
-        <v>175.8947</v>
+        <v>234.1417</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1747</v>
+        <v>0.5503</v>
       </c>
       <c r="B10" s="0">
-        <v>179.792</v>
+        <v>227.3978</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2012</v>
+        <v>0.5007</v>
       </c>
       <c r="B11" s="0">
-        <v>183.5786</v>
+        <v>221.1035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2263</v>
+        <v>0.4522</v>
       </c>
       <c r="B12" s="0">
-        <v>186.9569</v>
+        <v>214.9591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2521</v>
+        <v>0.4015</v>
       </c>
       <c r="B13" s="0">
-        <v>190.2913</v>
+        <v>208.6649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2778</v>
+        <v>0.3509</v>
       </c>
       <c r="B14" s="0">
-        <v>193.6758</v>
+        <v>202.5204</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3036</v>
+        <v>0.305</v>
       </c>
       <c r="B15" s="0">
-        <v>196.8117</v>
+        <v>197.1253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3316</v>
+        <v>0.2796</v>
       </c>
       <c r="B16" s="0">
-        <v>200.6946</v>
+        <v>194.1281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3812</v>
+        <v>0.2554</v>
       </c>
       <c r="B17" s="0">
-        <v>206.4789</v>
+        <v>190.9809</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4863</v>
+        <v>0.2295</v>
       </c>
       <c r="B18" s="0">
-        <v>219.2743</v>
+        <v>187.5341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5101</v>
+        <v>0.2037</v>
       </c>
       <c r="B19" s="0">
-        <v>221.6196</v>
+        <v>183.9373</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5374</v>
+        <v>0.1778</v>
       </c>
       <c r="B20" s="0">
-        <v>225.7858</v>
+        <v>180.4905</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5631</v>
+        <v>0.1525</v>
       </c>
       <c r="B21" s="0">
-        <v>228.4724</v>
+        <v>176.594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.589</v>
+        <v>0.1256</v>
       </c>
       <c r="B22" s="0">
-        <v>232.6607</v>
+        <v>171.9482</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6148</v>
+        <v>0.0982</v>
       </c>
       <c r="B23" s="0">
-        <v>235.5562</v>
+        <v>166.703</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6408</v>
+        <v>0.0698</v>
       </c>
       <c r="B24" s="0">
-        <v>239.7531</v>
+        <v>160.4087</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6664</v>
+        <v>0.0477</v>
       </c>
       <c r="B25" s="0">
-        <v>242.6544</v>
+        <v>153.8147</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6922</v>
+        <v>0.0361</v>
       </c>
       <c r="B26" s="0">
-        <v>246.7473</v>
+        <v>149.6185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7171</v>
+        <v>0.0277</v>
       </c>
       <c r="B27" s="0">
-        <v>249.6752</v>
+        <v>145.7221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.745</v>
+        <v>0.0156</v>
       </c>
       <c r="B28" s="0">
-        <v>254.0349</v>
+        <v>138.2289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7691</v>
+        <v>0.0053</v>
       </c>
       <c r="B29" s="0">
-        <v>256.4951</v>
+        <v>123.0926</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7953</v>
+        <v>0.0028</v>
       </c>
       <c r="B30" s="0">
-        <v>260.4808</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8206</v>
+        <v>0.0009</v>
       </c>
       <c r="B31" s="0">
-        <v>262.6186</v>
+        <v>98.0654</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8469</v>
+        <v>0.0012</v>
       </c>
       <c r="B32" s="0">
-        <v>265.9809</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8718</v>
-      </c>
-      <c r="B33" s="0">
-        <v>268.296</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8985</v>
-      </c>
-      <c r="B34" s="0">
-        <v>271.524</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.3604</v>
-      </c>
-      <c r="B35" s="0">
-        <v>203.2698</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.4131</v>
-      </c>
-      <c r="B36" s="0">
-        <v>209.564</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.4416</v>
-      </c>
-      <c r="B37" s="0">
-        <v>213.4605</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.4627</v>
-      </c>
-      <c r="B38" s="0">
-        <v>216.158</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0084</v>
-      </c>
-      <c r="B39" s="0">
-        <v>125.9401</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0022</v>
-      </c>
-      <c r="B40" s="0">
-        <v>117.8474</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0024</v>
-      </c>
-      <c r="B41" s="0">
-        <v>101.0627</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>-0.0005</v>
-      </c>
-      <c r="B42" s="0">
-        <v>82.7793</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B43" s="0">
-        <v>54.9046</v>
-      </c>
-    </row>
-    <row r="44"/>
+        <v>79.4823</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 119 Preparation and characterization of/Data119_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 119 Preparation and characterization of/Data119_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 6 Xp0.25  0-1-60-280 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 6 Xp0.50  0-1-60-280 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 6 Xp0.80  0-1-60-280 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 6 Xp0.25  0&amp;1&amp;60&amp;280 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 6 Xp0.50  0&amp;1&amp;60&amp;280 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 6 Xp0.80  0&amp;1&amp;60&amp;280 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 Xp0.25  0-1-60-280 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 Xp0.25  0&amp;1&amp;60&amp;280 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 Xp0.25  0-1-60-280 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 Xp0.25  0&amp;1&amp;60&amp;280 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 Xp0.50  0-1-60-280 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 Xp0.50  0&amp;1&amp;60&amp;280 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 Xp0.50  0-1-60-280 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 Xp0.50  0&amp;1&amp;60&amp;280 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 Xp0.80  0-1-60-280 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 Xp0.80  0&amp;1&amp;60&amp;280 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 Xp0.80  0-1-60-280 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 Xp0.80  0&amp;1&amp;60&amp;280 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
